--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Hgf-Sdc1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Hgf-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Sdc1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.22098193932109</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H2">
-        <v>5.22098193932109</v>
+        <v>0.03404</v>
       </c>
       <c r="I2">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="J2">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.718740829948282</v>
+        <v>1.377875666666667</v>
       </c>
       <c r="N2">
-        <v>0.718740829948282</v>
+        <v>4.133627000000001</v>
       </c>
       <c r="O2">
-        <v>0.03041796924217072</v>
+        <v>0.0498189471055581</v>
       </c>
       <c r="P2">
-        <v>0.03041796924217072</v>
+        <v>0.04981894710555809</v>
       </c>
       <c r="Q2">
-        <v>3.752532892212632</v>
+        <v>0.01563429589777778</v>
       </c>
       <c r="R2">
-        <v>3.752532892212632</v>
+        <v>0.14070866308</v>
       </c>
       <c r="S2">
-        <v>0.002442189443082634</v>
+        <v>8.356931991387856E-06</v>
       </c>
       <c r="T2">
-        <v>0.002442189443082634</v>
+        <v>8.356931991387852E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.22098193932109</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H3">
-        <v>5.22098193932109</v>
+        <v>0.03404</v>
       </c>
       <c r="I3">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="J3">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.0880808476034</v>
+        <v>12.16771933333333</v>
       </c>
       <c r="N3">
-        <v>12.0880808476034</v>
+        <v>36.503158</v>
       </c>
       <c r="O3">
-        <v>0.5115820002124147</v>
+        <v>0.4399402504357141</v>
       </c>
       <c r="P3">
-        <v>0.5115820002124147</v>
+        <v>0.439940250435714</v>
       </c>
       <c r="Q3">
-        <v>63.11165178639053</v>
+        <v>0.1380630553688889</v>
       </c>
       <c r="R3">
-        <v>63.11165178639053</v>
+        <v>1.24256749832</v>
       </c>
       <c r="S3">
-        <v>0.04107375315699076</v>
+        <v>7.379824277248175E-05</v>
       </c>
       <c r="T3">
-        <v>0.04107375315699076</v>
+        <v>7.379824277248174E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.22098193932109</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H4">
-        <v>5.22098193932109</v>
+        <v>0.03404</v>
       </c>
       <c r="I4">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="J4">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.1939911163792</v>
+        <v>2.451737666666667</v>
       </c>
       <c r="N4">
-        <v>1.1939911163792</v>
+        <v>7.355213</v>
       </c>
       <c r="O4">
-        <v>0.05053112824557491</v>
+        <v>0.08864587138537494</v>
       </c>
       <c r="P4">
-        <v>0.05053112824557491</v>
+        <v>0.08864587138537491</v>
       </c>
       <c r="Q4">
-        <v>6.23380605432563</v>
+        <v>0.02781905005777778</v>
       </c>
       <c r="R4">
-        <v>6.23380605432563</v>
+        <v>0.25037145052</v>
       </c>
       <c r="S4">
-        <v>0.004057029151614432</v>
+        <v>1.486999548415274E-05</v>
       </c>
       <c r="T4">
-        <v>0.004057029151614432</v>
+        <v>1.486999548415273E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,49 +726,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>5.22098193932109</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H5">
-        <v>5.22098193932109</v>
+        <v>0.03404</v>
       </c>
       <c r="I5">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="J5">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.6217935744948609</v>
+        <v>0.905288</v>
       </c>
       <c r="N5">
-        <v>0.6217935744948609</v>
+        <v>2.715864</v>
       </c>
       <c r="O5">
-        <v>0.02631504575206202</v>
+        <v>0.0327319046836808</v>
       </c>
       <c r="P5">
-        <v>0.02631504575206202</v>
+        <v>0.03273190468368079</v>
       </c>
       <c r="Q5">
-        <v>3.246373022423572</v>
+        <v>0.01027200117333333</v>
       </c>
       <c r="R5">
-        <v>3.246373022423572</v>
+        <v>0.09244801056</v>
       </c>
       <c r="S5">
-        <v>0.002112775064576801</v>
+        <v>5.490647981992226E-06</v>
       </c>
       <c r="T5">
-        <v>0.002112775064576801</v>
+        <v>5.490647981992225E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -788,111 +788,111 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>5.22098193932109</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H6">
-        <v>5.22098193932109</v>
+        <v>0.03404</v>
       </c>
       <c r="I6">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="J6">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.00621724652609</v>
+        <v>0.8153446666666667</v>
       </c>
       <c r="N6">
-        <v>9.00621724652609</v>
+        <v>2.446034</v>
       </c>
       <c r="O6">
-        <v>0.3811538565477776</v>
+        <v>0.02947988254973095</v>
       </c>
       <c r="P6">
-        <v>0.3811538565477776</v>
+        <v>0.02947988254973094</v>
       </c>
       <c r="Q6">
-        <v>47.02129758571483</v>
+        <v>0.009251444151111111</v>
       </c>
       <c r="R6">
-        <v>47.02129758571483</v>
+        <v>0.08326299736000001</v>
       </c>
       <c r="S6">
-        <v>0.03060197468280387</v>
+        <v>4.945134088446393E-06</v>
       </c>
       <c r="T6">
-        <v>0.03060197468280387</v>
+        <v>4.945134088446392E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>18.7518707823557</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H7">
-        <v>18.7518707823557</v>
+        <v>0.03404</v>
       </c>
       <c r="I7">
-        <v>0.2883643338471436</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="J7">
-        <v>0.2883643338471436</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.718740829948282</v>
+        <v>9.939698</v>
       </c>
       <c r="N7">
-        <v>0.718740829948282</v>
+        <v>29.819094</v>
       </c>
       <c r="O7">
-        <v>0.03041796924217072</v>
+        <v>0.3593831438399412</v>
       </c>
       <c r="P7">
-        <v>0.03041796924217072</v>
+        <v>0.3593831438399411</v>
       </c>
       <c r="Q7">
-        <v>13.47773516919328</v>
+        <v>0.1127824399733333</v>
       </c>
       <c r="R7">
-        <v>13.47773516919328</v>
+        <v>1.01504195976</v>
       </c>
       <c r="S7">
-        <v>0.008771457437501464</v>
+        <v>6.028510569599086E-05</v>
       </c>
       <c r="T7">
-        <v>0.008771457437501464</v>
+        <v>6.028510569599084E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.7518707823557</v>
+        <v>5.252770333333333</v>
       </c>
       <c r="H8">
-        <v>18.7518707823557</v>
+        <v>15.758311</v>
       </c>
       <c r="I8">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="J8">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.0880808476034</v>
+        <v>1.377875666666667</v>
       </c>
       <c r="N8">
-        <v>12.0880808476034</v>
+        <v>4.133627000000001</v>
       </c>
       <c r="O8">
-        <v>0.5115820002124147</v>
+        <v>0.0498189471055581</v>
       </c>
       <c r="P8">
-        <v>0.5115820002124147</v>
+        <v>0.04981894710555809</v>
       </c>
       <c r="Q8">
-        <v>226.6741300609277</v>
+        <v>7.237664424888557</v>
       </c>
       <c r="R8">
-        <v>226.6741300609277</v>
+        <v>65.13897982399702</v>
       </c>
       <c r="S8">
-        <v>0.1475220026994422</v>
+        <v>0.003868717195244981</v>
       </c>
       <c r="T8">
-        <v>0.1475220026994422</v>
+        <v>0.00386871719524498</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.7518707823557</v>
+        <v>5.252770333333333</v>
       </c>
       <c r="H9">
-        <v>18.7518707823557</v>
+        <v>15.758311</v>
       </c>
       <c r="I9">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="J9">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.1939911163792</v>
+        <v>12.16771933333333</v>
       </c>
       <c r="N9">
-        <v>1.1939911163792</v>
+        <v>36.503158</v>
       </c>
       <c r="O9">
-        <v>0.05053112824557491</v>
+        <v>0.4399402504357141</v>
       </c>
       <c r="P9">
-        <v>0.05053112824557491</v>
+        <v>0.439940250435714</v>
       </c>
       <c r="Q9">
-        <v>22.38956712962338</v>
+        <v>63.91423513845977</v>
       </c>
       <c r="R9">
-        <v>22.38956712962338</v>
+        <v>575.228116246138</v>
       </c>
       <c r="S9">
-        <v>0.01457137513507979</v>
+        <v>0.03416379732262837</v>
       </c>
       <c r="T9">
-        <v>0.01457137513507979</v>
+        <v>0.03416379732262836</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.7518707823557</v>
+        <v>5.252770333333333</v>
       </c>
       <c r="H10">
-        <v>18.7518707823557</v>
+        <v>15.758311</v>
       </c>
       <c r="I10">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="J10">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6217935744948609</v>
+        <v>2.451737666666667</v>
       </c>
       <c r="N10">
-        <v>0.6217935744948609</v>
+        <v>7.355213</v>
       </c>
       <c r="O10">
-        <v>0.02631504575206202</v>
+        <v>0.08864587138537494</v>
       </c>
       <c r="P10">
-        <v>0.02631504575206202</v>
+        <v>0.08864587138537491</v>
       </c>
       <c r="Q10">
-        <v>11.65979276222669</v>
+        <v>12.87841488058256</v>
       </c>
       <c r="R10">
-        <v>11.65979276222669</v>
+        <v>115.905733925243</v>
       </c>
       <c r="S10">
-        <v>0.00758832063845047</v>
+        <v>0.006883842932076217</v>
       </c>
       <c r="T10">
-        <v>0.00758832063845047</v>
+        <v>0.006883842932076215</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.7518707823557</v>
+        <v>5.252770333333333</v>
       </c>
       <c r="H11">
-        <v>18.7518707823557</v>
+        <v>15.758311</v>
       </c>
       <c r="I11">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="J11">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>9.00621724652609</v>
+        <v>0.905288</v>
       </c>
       <c r="N11">
-        <v>9.00621724652609</v>
+        <v>2.715864</v>
       </c>
       <c r="O11">
-        <v>0.3811538565477776</v>
+        <v>0.0327319046836808</v>
       </c>
       <c r="P11">
-        <v>0.3811538565477776</v>
+        <v>0.03273190468368079</v>
       </c>
       <c r="Q11">
-        <v>168.8834220446806</v>
+        <v>4.755269949522667</v>
       </c>
       <c r="R11">
-        <v>168.8834220446806</v>
+        <v>42.797429545704</v>
       </c>
       <c r="S11">
-        <v>0.1099111779366696</v>
+        <v>0.002541813704223146</v>
       </c>
       <c r="T11">
-        <v>0.1099111779366696</v>
+        <v>0.002541813704223146</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.1548885586748</v>
+        <v>5.252770333333333</v>
       </c>
       <c r="H12">
-        <v>25.1548885586748</v>
+        <v>15.758311</v>
       </c>
       <c r="I12">
-        <v>0.3868292804708704</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="J12">
-        <v>0.3868292804708704</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.718740829948282</v>
+        <v>0.8153446666666667</v>
       </c>
       <c r="N12">
-        <v>0.718740829948282</v>
+        <v>2.446034</v>
       </c>
       <c r="O12">
-        <v>0.03041796924217072</v>
+        <v>0.02947988254973095</v>
       </c>
       <c r="P12">
-        <v>0.03041796924217072</v>
+        <v>0.02947988254973094</v>
       </c>
       <c r="Q12">
-        <v>18.07984547991847</v>
+        <v>4.282818276508222</v>
       </c>
       <c r="R12">
-        <v>18.07984547991847</v>
+        <v>38.545364488574</v>
       </c>
       <c r="S12">
-        <v>0.01176656115533397</v>
+        <v>0.002289276172222085</v>
       </c>
       <c r="T12">
-        <v>0.01176656115533397</v>
+        <v>0.002289276172222084</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.1548885586748</v>
+        <v>5.252770333333333</v>
       </c>
       <c r="H13">
-        <v>25.1548885586748</v>
+        <v>15.758311</v>
       </c>
       <c r="I13">
-        <v>0.3868292804708704</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="J13">
-        <v>0.3868292804708704</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.0880808476034</v>
+        <v>9.939698</v>
       </c>
       <c r="N13">
-        <v>12.0880808476034</v>
+        <v>29.819094</v>
       </c>
       <c r="O13">
-        <v>0.5115820002124147</v>
+        <v>0.3593831438399412</v>
       </c>
       <c r="P13">
-        <v>0.5115820002124147</v>
+        <v>0.3593831438399411</v>
       </c>
       <c r="Q13">
-        <v>304.0743266097147</v>
+        <v>52.21095077669266</v>
       </c>
       <c r="R13">
-        <v>304.0743266097147</v>
+        <v>469.898556990234</v>
       </c>
       <c r="S13">
-        <v>0.1978948970440171</v>
+        <v>0.02790809178100163</v>
       </c>
       <c r="T13">
-        <v>0.1978948970440171</v>
+        <v>0.02790809178100162</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.1548885586748</v>
+        <v>20.094113</v>
       </c>
       <c r="H14">
-        <v>25.1548885586748</v>
+        <v>60.28233899999999</v>
       </c>
       <c r="I14">
-        <v>0.3868292804708704</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="J14">
-        <v>0.3868292804708704</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.1939911163792</v>
+        <v>1.377875666666667</v>
       </c>
       <c r="N14">
-        <v>1.1939911163792</v>
+        <v>4.133627000000001</v>
       </c>
       <c r="O14">
-        <v>0.05053112824557491</v>
+        <v>0.0498189471055581</v>
       </c>
       <c r="P14">
-        <v>0.05053112824557491</v>
+        <v>0.04981894710555809</v>
       </c>
       <c r="Q14">
-        <v>30.03471347256649</v>
+        <v>27.68718934595033</v>
       </c>
       <c r="R14">
-        <v>30.03471347256649</v>
+        <v>249.184704113553</v>
       </c>
       <c r="S14">
-        <v>0.01954691998061702</v>
+        <v>0.01479951255301962</v>
       </c>
       <c r="T14">
-        <v>0.01954691998061702</v>
+        <v>0.01479951255301961</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.1548885586748</v>
+        <v>20.094113</v>
       </c>
       <c r="H15">
-        <v>25.1548885586748</v>
+        <v>60.28233899999999</v>
       </c>
       <c r="I15">
-        <v>0.3868292804708704</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="J15">
-        <v>0.3868292804708704</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.6217935744948609</v>
+        <v>12.16771933333333</v>
       </c>
       <c r="N15">
-        <v>0.6217935744948609</v>
+        <v>36.503158</v>
       </c>
       <c r="O15">
-        <v>0.02631504575206202</v>
+        <v>0.4399402504357141</v>
       </c>
       <c r="P15">
-        <v>0.02631504575206202</v>
+        <v>0.439940250435714</v>
       </c>
       <c r="Q15">
-        <v>15.64114807291828</v>
+        <v>244.4995272362846</v>
       </c>
       <c r="R15">
-        <v>15.64114807291828</v>
+        <v>2200.495745126562</v>
       </c>
       <c r="S15">
-        <v>0.01017943021382819</v>
+        <v>0.1306912658171282</v>
       </c>
       <c r="T15">
-        <v>0.01017943021382819</v>
+        <v>0.1306912658171282</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.1548885586748</v>
+        <v>20.094113</v>
       </c>
       <c r="H16">
-        <v>25.1548885586748</v>
+        <v>60.28233899999999</v>
       </c>
       <c r="I16">
-        <v>0.3868292804708704</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="J16">
-        <v>0.3868292804708704</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.00621724652609</v>
+        <v>2.451737666666667</v>
       </c>
       <c r="N16">
-        <v>9.00621724652609</v>
+        <v>7.355213</v>
       </c>
       <c r="O16">
-        <v>0.3811538565477776</v>
+        <v>0.08864587138537494</v>
       </c>
       <c r="P16">
-        <v>0.3811538565477776</v>
+        <v>0.08864587138537491</v>
       </c>
       <c r="Q16">
-        <v>226.5503911715788</v>
+        <v>49.26549372035633</v>
       </c>
       <c r="R16">
-        <v>226.5503911715788</v>
+        <v>443.3894434832069</v>
       </c>
       <c r="S16">
-        <v>0.1474414720770741</v>
+        <v>0.02633366946839496</v>
       </c>
       <c r="T16">
-        <v>0.1474414720770741</v>
+        <v>0.02633366946839495</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.1870077489094</v>
+        <v>20.094113</v>
       </c>
       <c r="H17">
-        <v>15.1870077489094</v>
+        <v>60.28233899999999</v>
       </c>
       <c r="I17">
-        <v>0.2335442379843184</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="J17">
-        <v>0.2335442379843184</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.718740829948282</v>
+        <v>0.905288</v>
       </c>
       <c r="N17">
-        <v>0.718740829948282</v>
+        <v>2.715864</v>
       </c>
       <c r="O17">
-        <v>0.03041796924217072</v>
+        <v>0.0327319046836808</v>
       </c>
       <c r="P17">
-        <v>0.03041796924217072</v>
+        <v>0.03273190468368079</v>
       </c>
       <c r="Q17">
-        <v>10.91552255388213</v>
+        <v>18.190959369544</v>
       </c>
       <c r="R17">
-        <v>10.91552255388213</v>
+        <v>163.718634325896</v>
       </c>
       <c r="S17">
-        <v>0.007103941447693198</v>
+        <v>0.009723534165103445</v>
       </c>
       <c r="T17">
-        <v>0.007103941447693198</v>
+        <v>0.009723534165103442</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.1870077489094</v>
+        <v>20.094113</v>
       </c>
       <c r="H18">
-        <v>15.1870077489094</v>
+        <v>60.28233899999999</v>
       </c>
       <c r="I18">
-        <v>0.2335442379843184</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="J18">
-        <v>0.2335442379843184</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>12.0880808476034</v>
+        <v>0.8153446666666667</v>
       </c>
       <c r="N18">
-        <v>12.0880808476034</v>
+        <v>2.446034</v>
       </c>
       <c r="O18">
-        <v>0.5115820002124147</v>
+        <v>0.02947988254973095</v>
       </c>
       <c r="P18">
-        <v>0.5115820002124147</v>
+        <v>0.02947988254973094</v>
       </c>
       <c r="Q18">
-        <v>183.5817775019962</v>
+        <v>16.38362786594733</v>
       </c>
       <c r="R18">
-        <v>183.5817775019962</v>
+        <v>147.452650793526</v>
       </c>
       <c r="S18">
-        <v>0.1194770284061018</v>
+        <v>0.008757469139840818</v>
       </c>
       <c r="T18">
-        <v>0.1194770284061018</v>
+        <v>0.008757469139840816</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.1870077489094</v>
+        <v>20.094113</v>
       </c>
       <c r="H19">
-        <v>15.1870077489094</v>
+        <v>60.28233899999999</v>
       </c>
       <c r="I19">
-        <v>0.2335442379843184</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="J19">
-        <v>0.2335442379843184</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.1939911163792</v>
+        <v>9.939698</v>
       </c>
       <c r="N19">
-        <v>1.1939911163792</v>
+        <v>29.819094</v>
       </c>
       <c r="O19">
-        <v>0.05053112824557491</v>
+        <v>0.3593831438399412</v>
       </c>
       <c r="P19">
-        <v>0.05053112824557491</v>
+        <v>0.3593831438399411</v>
       </c>
       <c r="Q19">
-        <v>18.1331523365799</v>
+        <v>199.729414797874</v>
       </c>
       <c r="R19">
-        <v>18.1331523365799</v>
+        <v>1797.564733180866</v>
       </c>
       <c r="S19">
-        <v>0.01180125384060066</v>
+        <v>0.1067604928970785</v>
       </c>
       <c r="T19">
-        <v>0.01180125384060066</v>
+        <v>0.1067604928970785</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.1870077489094</v>
+        <v>25.65154633333333</v>
       </c>
       <c r="H20">
-        <v>15.1870077489094</v>
+        <v>76.954639</v>
       </c>
       <c r="I20">
-        <v>0.2335442379843184</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="J20">
-        <v>0.2335442379843184</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6217935744948609</v>
+        <v>1.377875666666667</v>
       </c>
       <c r="N20">
-        <v>0.6217935744948609</v>
+        <v>4.133627000000001</v>
       </c>
       <c r="O20">
-        <v>0.02631504575206202</v>
+        <v>0.0498189471055581</v>
       </c>
       <c r="P20">
-        <v>0.02631504575206202</v>
+        <v>0.04981894710555809</v>
       </c>
       <c r="Q20">
-        <v>9.443183834075528</v>
+        <v>35.34464150507256</v>
       </c>
       <c r="R20">
-        <v>9.443183834075528</v>
+        <v>318.101773545653</v>
       </c>
       <c r="S20">
-        <v>0.006145727307687801</v>
+        <v>0.01889261705478271</v>
       </c>
       <c r="T20">
-        <v>0.006145727307687801</v>
+        <v>0.01889261705478271</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,309 +1706,309 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.1870077489094</v>
+        <v>25.65154633333333</v>
       </c>
       <c r="H21">
-        <v>15.1870077489094</v>
+        <v>76.954639</v>
       </c>
       <c r="I21">
-        <v>0.2335442379843184</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="J21">
-        <v>0.2335442379843184</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.00621724652609</v>
+        <v>12.16771933333333</v>
       </c>
       <c r="N21">
-        <v>9.00621724652609</v>
+        <v>36.503158</v>
       </c>
       <c r="O21">
-        <v>0.3811538565477776</v>
+        <v>0.4399402504357141</v>
       </c>
       <c r="P21">
-        <v>0.3811538565477776</v>
+        <v>0.439940250435714</v>
       </c>
       <c r="Q21">
-        <v>136.7774911113532</v>
+        <v>312.1208162499958</v>
       </c>
       <c r="R21">
-        <v>136.7774911113532</v>
+        <v>2809.087346249962</v>
       </c>
       <c r="S21">
-        <v>0.08901628698223493</v>
+        <v>0.1668365784779874</v>
       </c>
       <c r="T21">
-        <v>0.08901628698223493</v>
+        <v>0.1668365784779874</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.713649358924245</v>
+        <v>25.65154633333333</v>
       </c>
       <c r="H22">
-        <v>0.713649358924245</v>
+        <v>76.954639</v>
       </c>
       <c r="I22">
-        <v>0.01097442619859919</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="J22">
-        <v>0.01097442619859919</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.718740829948282</v>
+        <v>2.451737666666667</v>
       </c>
       <c r="N22">
-        <v>0.718740829948282</v>
+        <v>7.355213</v>
       </c>
       <c r="O22">
-        <v>0.03041796924217072</v>
+        <v>0.08864587138537494</v>
       </c>
       <c r="P22">
-        <v>0.03041796924217072</v>
+        <v>0.08864587138537491</v>
       </c>
       <c r="Q22">
-        <v>0.5129289325252713</v>
+        <v>62.89086235367856</v>
       </c>
       <c r="R22">
-        <v>0.5129289325252713</v>
+        <v>566.017761183107</v>
       </c>
       <c r="S22">
-        <v>0.0003338197585594626</v>
+        <v>0.03361677833180388</v>
       </c>
       <c r="T22">
-        <v>0.0003338197585594626</v>
+        <v>0.03361677833180388</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.713649358924245</v>
+        <v>25.65154633333333</v>
       </c>
       <c r="H23">
-        <v>0.713649358924245</v>
+        <v>76.954639</v>
       </c>
       <c r="I23">
-        <v>0.01097442619859919</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="J23">
-        <v>0.01097442619859919</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>12.0880808476034</v>
+        <v>0.905288</v>
       </c>
       <c r="N23">
-        <v>12.0880808476034</v>
+        <v>2.715864</v>
       </c>
       <c r="O23">
-        <v>0.5115820002124147</v>
+        <v>0.0327319046836808</v>
       </c>
       <c r="P23">
-        <v>0.5115820002124147</v>
+        <v>0.03273190468368079</v>
       </c>
       <c r="Q23">
-        <v>8.626651147516611</v>
+        <v>23.22203707701066</v>
       </c>
       <c r="R23">
-        <v>8.626651147516611</v>
+        <v>208.998333693096</v>
       </c>
       <c r="S23">
-        <v>0.005614318905862899</v>
+        <v>0.01241277418714131</v>
       </c>
       <c r="T23">
-        <v>0.005614318905862899</v>
+        <v>0.01241277418714131</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.713649358924245</v>
+        <v>25.65154633333333</v>
       </c>
       <c r="H24">
-        <v>0.713649358924245</v>
+        <v>76.954639</v>
       </c>
       <c r="I24">
-        <v>0.01097442619859919</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="J24">
-        <v>0.01097442619859919</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.1939911163792</v>
+        <v>0.8153446666666667</v>
       </c>
       <c r="N24">
-        <v>1.1939911163792</v>
+        <v>2.446034</v>
       </c>
       <c r="O24">
-        <v>0.05053112824557491</v>
+        <v>0.02947988254973095</v>
       </c>
       <c r="P24">
-        <v>0.05053112824557491</v>
+        <v>0.02947988254973094</v>
       </c>
       <c r="Q24">
-        <v>0.8520909947652597</v>
+        <v>20.91485149463622</v>
       </c>
       <c r="R24">
-        <v>0.8520909947652597</v>
+        <v>188.233663451726</v>
       </c>
       <c r="S24">
-        <v>0.0005545501376630126</v>
+        <v>0.01117952434145083</v>
       </c>
       <c r="T24">
-        <v>0.0005545501376630126</v>
+        <v>0.01117952434145083</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.713649358924245</v>
+        <v>25.65154633333333</v>
       </c>
       <c r="H25">
-        <v>0.713649358924245</v>
+        <v>76.954639</v>
       </c>
       <c r="I25">
-        <v>0.01097442619859919</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="J25">
-        <v>0.01097442619859919</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.6217935744948609</v>
+        <v>9.939698</v>
       </c>
       <c r="N25">
-        <v>0.6217935744948609</v>
+        <v>29.819094</v>
       </c>
       <c r="O25">
-        <v>0.02631504575206202</v>
+        <v>0.3593831438399412</v>
       </c>
       <c r="P25">
-        <v>0.02631504575206202</v>
+        <v>0.3593831438399411</v>
       </c>
       <c r="Q25">
-        <v>0.4437425858214722</v>
+        <v>254.9686237863407</v>
       </c>
       <c r="R25">
-        <v>0.4437425858214722</v>
+        <v>2294.717614077066</v>
       </c>
       <c r="S25">
-        <v>0.0002887925275187657</v>
+        <v>0.1362872663311346</v>
       </c>
       <c r="T25">
-        <v>0.0002887925275187657</v>
+        <v>0.1362872663311345</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,743 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>15.43587433333334</v>
+      </c>
+      <c r="H26">
+        <v>46.30762300000001</v>
+      </c>
+      <c r="I26">
+        <v>0.2281998006542117</v>
+      </c>
+      <c r="J26">
+        <v>0.2281998006542116</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.377875666666667</v>
+      </c>
+      <c r="N26">
+        <v>4.133627000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.0498189471055581</v>
+      </c>
+      <c r="P26">
+        <v>0.04981894710555809</v>
+      </c>
+      <c r="Q26">
+        <v>21.26871563762456</v>
+      </c>
+      <c r="R26">
+        <v>191.4184407386211</v>
+      </c>
+      <c r="S26">
+        <v>0.01136867379829107</v>
+      </c>
+      <c r="T26">
+        <v>0.01136867379829107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>15.43587433333334</v>
+      </c>
+      <c r="H27">
+        <v>46.30762300000001</v>
+      </c>
+      <c r="I27">
+        <v>0.2281998006542117</v>
+      </c>
+      <c r="J27">
+        <v>0.2281998006542116</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>12.16771933333333</v>
+      </c>
+      <c r="N27">
+        <v>36.503158</v>
+      </c>
+      <c r="O27">
+        <v>0.4399402504357141</v>
+      </c>
+      <c r="P27">
+        <v>0.439940250435714</v>
+      </c>
+      <c r="Q27">
+        <v>187.8193865526038</v>
+      </c>
+      <c r="R27">
+        <v>1690.374478973434</v>
+      </c>
+      <c r="S27">
+        <v>0.1003942774491939</v>
+      </c>
+      <c r="T27">
+        <v>0.1003942774491939</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>15.43587433333334</v>
+      </c>
+      <c r="H28">
+        <v>46.30762300000001</v>
+      </c>
+      <c r="I28">
+        <v>0.2281998006542117</v>
+      </c>
+      <c r="J28">
+        <v>0.2281998006542116</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>2.451737666666667</v>
+      </c>
+      <c r="N28">
+        <v>7.355213</v>
+      </c>
+      <c r="O28">
+        <v>0.08864587138537494</v>
+      </c>
+      <c r="P28">
+        <v>0.08864587138537491</v>
+      </c>
+      <c r="Q28">
+        <v>37.84471452096656</v>
+      </c>
+      <c r="R28">
+        <v>340.602430688699</v>
+      </c>
+      <c r="S28">
+        <v>0.02022897017896145</v>
+      </c>
+      <c r="T28">
+        <v>0.02022897017896144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>15.43587433333334</v>
+      </c>
+      <c r="H29">
+        <v>46.30762300000001</v>
+      </c>
+      <c r="I29">
+        <v>0.2281998006542117</v>
+      </c>
+      <c r="J29">
+        <v>0.2281998006542116</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.905288</v>
+      </c>
+      <c r="N29">
+        <v>2.715864</v>
+      </c>
+      <c r="O29">
+        <v>0.0327319046836808</v>
+      </c>
+      <c r="P29">
+        <v>0.03273190468368079</v>
+      </c>
+      <c r="Q29">
+        <v>13.97391180347467</v>
+      </c>
+      <c r="R29">
+        <v>125.765206231272</v>
+      </c>
+      <c r="S29">
+        <v>0.007469414123848615</v>
+      </c>
+      <c r="T29">
+        <v>0.007469414123848613</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>15.43587433333334</v>
+      </c>
+      <c r="H30">
+        <v>46.30762300000001</v>
+      </c>
+      <c r="I30">
+        <v>0.2281998006542117</v>
+      </c>
+      <c r="J30">
+        <v>0.2281998006542116</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.8153446666666667</v>
+      </c>
+      <c r="N30">
+        <v>2.446034</v>
+      </c>
+      <c r="O30">
+        <v>0.02947988254973095</v>
+      </c>
+      <c r="P30">
+        <v>0.02947988254973094</v>
+      </c>
+      <c r="Q30">
+        <v>12.58555781302023</v>
+      </c>
+      <c r="R30">
+        <v>113.270020317182</v>
+      </c>
+      <c r="S30">
+        <v>0.006727303321158175</v>
+      </c>
+      <c r="T30">
+        <v>0.006727303321158173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>15.43587433333334</v>
+      </c>
+      <c r="H31">
+        <v>46.30762300000001</v>
+      </c>
+      <c r="I31">
+        <v>0.2281998006542117</v>
+      </c>
+      <c r="J31">
+        <v>0.2281998006542116</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>9.939698</v>
+      </c>
+      <c r="N31">
+        <v>29.819094</v>
+      </c>
+      <c r="O31">
+        <v>0.3593831438399412</v>
+      </c>
+      <c r="P31">
+        <v>0.3593831438399411</v>
+      </c>
+      <c r="Q31">
+        <v>153.4279292392847</v>
+      </c>
+      <c r="R31">
+        <v>1380.851363153562</v>
+      </c>
+      <c r="S31">
+        <v>0.08201116178275845</v>
+      </c>
+      <c r="T31">
+        <v>0.08201116178275843</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.196276666666667</v>
+      </c>
+      <c r="H32">
+        <v>3.588830000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.01768543141551132</v>
+      </c>
+      <c r="J32">
+        <v>0.01768543141551131</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.377875666666667</v>
+      </c>
+      <c r="N32">
+        <v>4.133627000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.0498189471055581</v>
+      </c>
+      <c r="P32">
+        <v>0.04981894710555809</v>
+      </c>
+      <c r="Q32">
+        <v>1.648320509601112</v>
+      </c>
+      <c r="R32">
+        <v>14.83488458641001</v>
+      </c>
+      <c r="S32">
+        <v>0.0008810695722283339</v>
+      </c>
+      <c r="T32">
+        <v>0.0008810695722283335</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.196276666666667</v>
+      </c>
+      <c r="H33">
+        <v>3.588830000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.01768543141551132</v>
+      </c>
+      <c r="J33">
+        <v>0.01768543141551131</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>12.16771933333333</v>
+      </c>
+      <c r="N33">
+        <v>36.503158</v>
+      </c>
+      <c r="O33">
+        <v>0.4399402504357141</v>
+      </c>
+      <c r="P33">
+        <v>0.439940250435714</v>
+      </c>
+      <c r="Q33">
+        <v>14.55595872501556</v>
+      </c>
+      <c r="R33">
+        <v>131.00362852514</v>
+      </c>
+      <c r="S33">
+        <v>0.007780533126003694</v>
+      </c>
+      <c r="T33">
+        <v>0.007780533126003692</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.196276666666667</v>
+      </c>
+      <c r="H34">
+        <v>3.588830000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.01768543141551132</v>
+      </c>
+      <c r="J34">
+        <v>0.01768543141551131</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>2.451737666666667</v>
+      </c>
+      <c r="N34">
+        <v>7.355213</v>
+      </c>
+      <c r="O34">
+        <v>0.08864587138537494</v>
+      </c>
+      <c r="P34">
+        <v>0.08864587138537491</v>
+      </c>
+      <c r="Q34">
+        <v>2.932956563421112</v>
+      </c>
+      <c r="R34">
+        <v>26.39660907079</v>
+      </c>
+      <c r="S34">
+        <v>0.001567740478654286</v>
+      </c>
+      <c r="T34">
+        <v>0.001567740478654285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.196276666666667</v>
+      </c>
+      <c r="H35">
+        <v>3.588830000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.01768543141551132</v>
+      </c>
+      <c r="J35">
+        <v>0.01768543141551131</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.905288</v>
+      </c>
+      <c r="N35">
+        <v>2.715864</v>
+      </c>
+      <c r="O35">
+        <v>0.0327319046836808</v>
+      </c>
+      <c r="P35">
+        <v>0.03273190468368079</v>
+      </c>
+      <c r="Q35">
+        <v>1.082974911013334</v>
+      </c>
+      <c r="R35">
+        <v>9.746774199120001</v>
+      </c>
+      <c r="S35">
+        <v>0.0005788778553822905</v>
+      </c>
+      <c r="T35">
+        <v>0.0005788778553822902</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.713649358924245</v>
-      </c>
-      <c r="H26">
-        <v>0.713649358924245</v>
-      </c>
-      <c r="I26">
-        <v>0.01097442619859919</v>
-      </c>
-      <c r="J26">
-        <v>0.01097442619859919</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>9.00621724652609</v>
-      </c>
-      <c r="N26">
-        <v>9.00621724652609</v>
-      </c>
-      <c r="O26">
-        <v>0.3811538565477776</v>
-      </c>
-      <c r="P26">
-        <v>0.3811538565477776</v>
-      </c>
-      <c r="Q26">
-        <v>6.427281164315823</v>
-      </c>
-      <c r="R26">
-        <v>6.427281164315823</v>
-      </c>
-      <c r="S26">
-        <v>0.004182944868995046</v>
-      </c>
-      <c r="T26">
-        <v>0.004182944868995046</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.196276666666667</v>
+      </c>
+      <c r="H36">
+        <v>3.588830000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.01768543141551132</v>
+      </c>
+      <c r="J36">
+        <v>0.01768543141551131</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.8153446666666667</v>
+      </c>
+      <c r="N36">
+        <v>2.446034</v>
+      </c>
+      <c r="O36">
+        <v>0.02947988254973095</v>
+      </c>
+      <c r="P36">
+        <v>0.02947988254973094</v>
+      </c>
+      <c r="Q36">
+        <v>0.9753778000244446</v>
+      </c>
+      <c r="R36">
+        <v>8.778400200220002</v>
+      </c>
+      <c r="S36">
+        <v>0.0005213644409705956</v>
+      </c>
+      <c r="T36">
+        <v>0.0005213644409705954</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.196276666666667</v>
+      </c>
+      <c r="H37">
+        <v>3.588830000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.01768543141551132</v>
+      </c>
+      <c r="J37">
+        <v>0.01768543141551131</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>9.939698</v>
+      </c>
+      <c r="N37">
+        <v>29.819094</v>
+      </c>
+      <c r="O37">
+        <v>0.3593831438399412</v>
+      </c>
+      <c r="P37">
+        <v>0.3593831438399411</v>
+      </c>
+      <c r="Q37">
+        <v>11.89062879111334</v>
+      </c>
+      <c r="R37">
+        <v>107.01565912002</v>
+      </c>
+      <c r="S37">
+        <v>0.006355845942272119</v>
+      </c>
+      <c r="T37">
+        <v>0.006355845942272116</v>
       </c>
     </row>
   </sheetData>
